--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\2018\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A640C-F93C-4935-928A-C25E16E146B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB094315-1FAA-44B9-92F0-26CE8ED762E3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34320" windowHeight="20010" activeTab="1" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="2" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
   <sheets>
     <sheet name="MultigridGPUvsEigen" sheetId="1" r:id="rId1"/>
     <sheet name="EmptyVolume" sheetId="2" r:id="rId2"/>
+    <sheet name="Boundary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>x</t>
   </si>
@@ -197,6 +198,155 @@
   </si>
   <si>
     <t>point restr + interp3D</t>
+  </si>
+  <si>
+    <t>setup</t>
+  </si>
+  <si>
+    <t>V-cycle</t>
+  </si>
+  <si>
+    <t>direct on second</t>
+  </si>
+  <si>
+    <t>unweighted restriction &amp; interpolation</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>8x8x8</t>
+  </si>
+  <si>
+    <t>empty volume</t>
+  </si>
+  <si>
+    <t>first ratio</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>dirichlet /= 2^level</t>
+  </si>
+  <si>
+    <t>dirichlet /= 4^level</t>
+  </si>
+  <si>
+    <t>dirichlet /= 8^level</t>
+  </si>
+  <si>
+    <t>all boundary /=4</t>
+  </si>
+  <si>
+    <t>all res same iter</t>
+  </si>
+  <si>
+    <t>all /4^level</t>
+  </si>
+  <si>
+    <t>too much</t>
+  </si>
+  <si>
+    <t>zero first guess</t>
+  </si>
+  <si>
+    <t>correct? Scaling</t>
+  </si>
+  <si>
+    <t>random init</t>
+  </si>
+  <si>
+    <t>wieghted restr</t>
+  </si>
+  <si>
+    <t>weighted R+I</t>
+  </si>
+  <si>
+    <t>weighted R / W</t>
+  </si>
+  <si>
+    <t>sphere 0.45</t>
+  </si>
+  <si>
+    <t>&lt; x/2 =&gt; 1</t>
+  </si>
+  <si>
+    <t>xNEG</t>
+  </si>
+  <si>
+    <t>&gt; x/2 =&gt; 1</t>
+  </si>
+  <si>
+    <t>&gt; x/2 =&gt; 1, except d-1</t>
+  </si>
+  <si>
+    <t>c.val = Dface</t>
+  </si>
+  <si>
+    <t>but worse for empty volume</t>
+  </si>
+  <si>
+    <t>double smooth</t>
+  </si>
+  <si>
+    <t>ABDP81</t>
+  </si>
+  <si>
+    <t>abs 0.5 - 0.25</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2 =&gt; 1</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt; x/2 =&gt; 1, harmonic all</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; x/2 =&gt; 1, harmonic </t>
+  </si>
+  <si>
+    <t>and faceavgscale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT FOR DATA</t>
+  </si>
+  <si>
+    <t>harmonic all</t>
+  </si>
+  <si>
+    <t>harmonic only flips the x/2 problem</t>
+  </si>
+  <si>
+    <t>5,9 vs 7,16</t>
+  </si>
+  <si>
+    <t>9,15 vs 6,6</t>
   </si>
 </sst>
 </file>
@@ -204,7 +354,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,7 +395,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1658,11 +1808,11 @@
         <v>81</v>
       </c>
       <c r="H3" s="1">
-        <f>D3/D2</f>
+        <f t="shared" ref="H3:I6" si="1">D3/D2</f>
         <v>8</v>
       </c>
       <c r="I3" s="1">
-        <f>E3/E2</f>
+        <f t="shared" si="1"/>
         <v>2.1016949152542375</v>
       </c>
       <c r="J3">
@@ -1694,15 +1844,15 @@
         <v>90</v>
       </c>
       <c r="H4" s="1">
-        <f>D4/D3</f>
+        <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
       <c r="I4" s="1">
-        <f>E4/E3</f>
+        <f t="shared" si="1"/>
         <v>2.532258064516129</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" si="1">I4/H4</f>
+        <f t="shared" ref="J4:J7" si="2">I4/H4</f>
         <v>0.75029868578255676</v>
       </c>
     </row>
@@ -1730,15 +1880,15 @@
         <v>82</v>
       </c>
       <c r="H5" s="1">
-        <f>D5/D4</f>
+        <f t="shared" si="1"/>
         <v>1.587962962962963</v>
       </c>
       <c r="I5" s="1">
-        <f>E5/E4</f>
+        <f t="shared" si="1"/>
         <v>1.3980891719745221</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88042933278862034</v>
       </c>
     </row>
@@ -1766,15 +1916,15 @@
         <v>150</v>
       </c>
       <c r="H6" s="1">
-        <f>D6/D5</f>
+        <f t="shared" si="1"/>
         <v>1.4927113702623906</v>
       </c>
       <c r="I6" s="1">
-        <f>E6/E5</f>
+        <f t="shared" si="1"/>
         <v>2.6640091116173124</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7846779790717542</v>
       </c>
     </row>
@@ -1810,7 +1960,7 @@
         <v>6.4214123006833717</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4488034075065639</v>
       </c>
     </row>
@@ -1880,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E29A7EF-4A86-4B88-94CD-3505A635C8B8}">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
@@ -2174,13 +2324,13 @@
         <v>65536</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E30" si="1">POWER(D18,1/3)</f>
+        <f t="shared" ref="E18:E29" si="1">POWER(D18,1/3)</f>
         <v>40.317473596635928</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19">
-        <f t="shared" ref="D19:D30" si="2">D18*2</f>
+        <f t="shared" ref="D19:D29" si="2">D18*2</f>
         <v>131072</v>
       </c>
       <c r="E19" s="1">
@@ -3464,6 +3614,957 @@
       </c>
       <c r="C120">
         <v>0.28000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17AE62E-03D1-4E2F-9FFE-189D5E2D6059}">
+  <dimension ref="A2:N69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.15</v>
+      </c>
+      <c r="F7">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.13</v>
+      </c>
+      <c r="E8">
+        <v>0.21</v>
+      </c>
+      <c r="F8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0.59</v>
+      </c>
+      <c r="D9">
+        <v>0.37</v>
+      </c>
+      <c r="E9">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.12</v>
+      </c>
+      <c r="E10">
+        <v>0.18</v>
+      </c>
+      <c r="F10">
+        <v>0.16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0.46</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>0.46</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>0.75</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>73</v>
+      </c>
+      <c r="H21">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>0.13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>0.43</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2">
+        <v>64</v>
+      </c>
+      <c r="C39" s="2">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F39">
+        <v>64</v>
+      </c>
+      <c r="G39">
+        <v>24</v>
+      </c>
+      <c r="H39">
+        <v>0.62</v>
+      </c>
+      <c r="L39">
+        <v>64</v>
+      </c>
+      <c r="M39">
+        <v>18</v>
+      </c>
+      <c r="N39">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="F40">
+        <v>96</v>
+      </c>
+      <c r="G40">
+        <v>26</v>
+      </c>
+      <c r="H40">
+        <v>0.65</v>
+      </c>
+      <c r="L40">
+        <v>96</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>96</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>96</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>0.06</v>
+      </c>
+      <c r="I54">
+        <v>64</v>
+      </c>
+      <c r="J54">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>96</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>96</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\2018\battery\battery\data\results\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB094315-1FAA-44B9-92F0-26CE8ED762E3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BE3DD-FB1C-458E-855D-FD337563BAE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="2" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>x</t>
   </si>
@@ -348,6 +348,9 @@
   <si>
     <t>9,15 vs 6,6</t>
   </si>
+  <si>
+    <t>v cycle, 2 levels, direct solver on second, 1e-6, xneg, zero first guess, unweighted interp &amp; restr, nonharmonic, direct coarsening</t>
+  </si>
 </sst>
 </file>
 
@@ -356,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,16 +375,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -389,18 +416,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3624,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17AE62E-03D1-4E2F-9FFE-189D5E2D6059}">
-  <dimension ref="A2:N69"/>
+  <dimension ref="A2:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,7 +3687,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3650,7 +3701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3664,7 +3715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3672,7 +3723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3685,8 +3736,16 @@
       <c r="E5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3702,8 +3761,14 @@
       <c r="E6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3722,8 +3787,14 @@
       <c r="F7">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -3742,8 +3813,14 @@
       <c r="F8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -3759,8 +3836,16 @@
       <c r="E9">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3782,16 +3867,56 @@
       <c r="G10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="5">
+        <v>8</v>
+      </c>
+      <c r="S11" s="5">
+        <v>5</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
+        <v>16</v>
+      </c>
+      <c r="S12" s="5">
+        <v>5</v>
+      </c>
+      <c r="T12" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -3810,60 +3935,113 @@
       <c r="G13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5">
+        <v>32</v>
+      </c>
+      <c r="S13" s="5">
+        <v>6</v>
+      </c>
+      <c r="T13" s="5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5">
+        <v>64</v>
+      </c>
+      <c r="S14" s="5">
+        <v>6</v>
+      </c>
+      <c r="T14" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="Q15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="5">
+        <v>8</v>
+      </c>
+      <c r="S15" s="5">
+        <v>11</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
         <v>32</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5">
+        <v>16</v>
+      </c>
+      <c r="S16" s="5">
+        <v>15</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E17">
@@ -3872,18 +4050,30 @@
       <c r="F17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5">
+        <v>32</v>
+      </c>
+      <c r="S17" s="5">
+        <v>15</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>11</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>0.33800000000000002</v>
       </c>
       <c r="E18">
@@ -3898,15 +4088,28 @@
       <c r="H18">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5">
+        <v>64</v>
+      </c>
+      <c r="S18" s="5">
+        <v>36</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.46</v>
       </c>
       <c r="E19">
@@ -3922,14 +4125,15 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
         <v>32</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>0.46</v>
       </c>
       <c r="E20">
@@ -3945,14 +4149,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
         <v>64</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>36</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0.75</v>
       </c>
       <c r="E21">
@@ -3968,7 +4173,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -3982,7 +4187,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -3996,7 +4201,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -4007,7 +4212,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -4021,7 +4226,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>16</v>
       </c>
@@ -4032,7 +4237,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>32</v>
       </c>
@@ -4043,7 +4248,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>64</v>
       </c>
@@ -4054,7 +4259,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>96</v>
       </c>
@@ -4065,7 +4270,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -4079,7 +4284,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>16</v>
       </c>
@@ -4568,6 +4773,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R5:V9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BE3DD-FB1C-458E-855D-FD337563BAE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A7F72-29AD-435B-9016-31131073BA40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="2" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="3" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
   <sheets>
     <sheet name="MultigridGPUvsEigen" sheetId="1" r:id="rId1"/>
     <sheet name="EmptyVolume" sheetId="2" r:id="rId2"/>
     <sheet name="Boundary" sheetId="3" r:id="rId3"/>
+    <sheet name="New Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
   <si>
     <t>x</t>
   </si>
@@ -349,7 +350,52 @@
     <t>9,15 vs 6,6</t>
   </si>
   <si>
-    <t>v cycle, 2 levels, direct solver on second, 1e-6, xneg, zero first guess, unweighted interp &amp; restr, nonharmonic, direct coarsening</t>
+    <t xml:space="preserve">A = galerkin </t>
+  </si>
+  <si>
+    <t>galerking is better for data</t>
+  </si>
+  <si>
+    <t>jacobi plane positive x,y,z 64</t>
+  </si>
+  <si>
+    <t>not better than repeated zebra gauss seide</t>
+  </si>
+  <si>
+    <t>gs 64x … for 64^3 yields 10 iter, 0.5 ratio</t>
+  </si>
+  <si>
+    <t>harmonc</t>
+  </si>
+  <si>
+    <t>galerkin</t>
+  </si>
+  <si>
+    <t>nonweighted directly I &amp; R</t>
+  </si>
+  <si>
+    <t>harmonic, galerkin, wieghted R -&gt; I is tranpose</t>
+  </si>
+  <si>
+    <t>log N levels</t>
+  </si>
+  <si>
+    <t>v cycle, logN levels, direct solver on second, 1e-6, xneg, zero first guess, unweighted interp &amp; restr, nonharmonic, direct coarsening</t>
+  </si>
+  <si>
+    <t>idea:</t>
+  </si>
+  <si>
+    <t>2 level</t>
+  </si>
+  <si>
+    <t>check D[i]!!!</t>
+  </si>
+  <si>
+    <t>checked, is ok?</t>
+  </si>
+  <si>
+    <t>not for W perhaps</t>
   </si>
 </sst>
 </file>
@@ -359,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +431,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -437,7 +491,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +501,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3675,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17AE62E-03D1-4E2F-9FFE-189D5E2D6059}">
-  <dimension ref="A2:V69"/>
+  <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,7 +3743,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3701,7 +3757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3715,7 +3771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3723,7 +3779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3736,16 +3792,8 @@
       <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3761,14 +3809,8 @@
       <c r="E6">
         <v>0.3</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3787,14 +3829,8 @@
       <c r="F7">
         <v>0.34</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -3813,14 +3849,8 @@
       <c r="F8">
         <v>0.18</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -3836,16 +3866,8 @@
       <c r="E9">
         <v>0.61</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3867,56 +3889,16 @@
       <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="5">
-        <v>8</v>
-      </c>
-      <c r="S11" s="5">
-        <v>5</v>
-      </c>
-      <c r="T11" s="5">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5">
-        <v>16</v>
-      </c>
-      <c r="S12" s="5">
-        <v>5</v>
-      </c>
-      <c r="T12" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -3935,20 +3917,8 @@
       <c r="G13" t="s">
         <v>75</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5">
-        <v>32</v>
-      </c>
-      <c r="S13" s="5">
-        <v>6</v>
-      </c>
-      <c r="T13" s="5">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -3964,20 +3934,8 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5">
-        <v>64</v>
-      </c>
-      <c r="S14" s="5">
-        <v>6</v>
-      </c>
-      <c r="T14" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>16</v>
@@ -3991,22 +3949,8 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="5">
-        <v>8</v>
-      </c>
-      <c r="S15" s="5">
-        <v>11</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>32</v>
@@ -4020,20 +3964,8 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5">
-        <v>16</v>
-      </c>
-      <c r="S16" s="5">
-        <v>15</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>64</v>
@@ -4050,20 +3982,8 @@
       <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5">
-        <v>32</v>
-      </c>
-      <c r="S17" s="5">
-        <v>15</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -4088,20 +4008,8 @@
       <c r="H18">
         <v>0.09</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5">
-        <v>64</v>
-      </c>
-      <c r="S18" s="5">
-        <v>36</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>16</v>
@@ -4125,7 +4033,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>32</v>
@@ -4149,7 +4057,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
         <v>64</v>
@@ -4173,7 +4081,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -4187,7 +4095,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -4201,7 +4109,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -4212,7 +4120,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -4226,7 +4134,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>16</v>
       </c>
@@ -4237,7 +4145,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>32</v>
       </c>
@@ -4248,7 +4156,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>64</v>
       </c>
@@ -4259,7 +4167,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>96</v>
       </c>
@@ -4270,7 +4178,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -4284,7 +4192,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>16</v>
       </c>
@@ -4773,10 +4681,711 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="R5:V9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF2285-8896-4B10-84E1-CD5F722E2922}">
+  <dimension ref="A1:K64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="J5" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>64</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0.28320000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="7">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>6.1400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>0.28320000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>64</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I56">
+        <v>16</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I57">
+        <v>32</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>32</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I58">
+        <v>64</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>0.72</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I60">
+        <v>16</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I61">
+        <v>32</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>0.35</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62">
+        <v>64</v>
+      </c>
+      <c r="J62">
+        <v>17</v>
+      </c>
+      <c r="K62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>0.85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\2018\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A7F72-29AD-435B-9016-31131073BA40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0942D994-F706-4346-B670-F8856BB2DAD4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="3" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Boundary" sheetId="3" r:id="rId3"/>
     <sheet name="New Test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
   <si>
     <t>x</t>
   </si>
@@ -396,6 +396,171 @@
   </si>
   <si>
     <t>not for W perhaps</t>
+  </si>
+  <si>
+    <t>64x</t>
+  </si>
+  <si>
+    <t>Multigrid solver levels 2</t>
+  </si>
+  <si>
+    <t>Prep time: 0.223138</t>
+  </si>
+  <si>
+    <t>k = 0 | |r|: 0.101864, ratio: 0.0509319 | |e|: 0.0509319, ratio: 0.0509319</t>
+  </si>
+  <si>
+    <t>k = 1 | |r|: 0.00510169, ratio: 0.0500834 | |e|: 0.00255084, ratio: 0.0500834</t>
+  </si>
+  <si>
+    <t>k = 2 | |r|: 0.000221933, ratio: 0.043502 | |e|: 0.000110967, ratio: 0.043502</t>
+  </si>
+  <si>
+    <t>k = 3 | |r|: 1.02756e-05, ratio: 0.0463002 | |e|: 5.13779e-06, ratio: 0.0463002</t>
+  </si>
+  <si>
+    <t>k = 4 | |r|: 4.65443e-07, ratio: 0.045296 | |e|: 2.32721e-07, ratio: 0.045296</t>
+  </si>
+  <si>
+    <t>Avg ratio: 0.0472227</t>
+  </si>
+  <si>
+    <t>dc: 0.0078125</t>
+  </si>
+  <si>
+    <t>porosity: 1</t>
+  </si>
+  <si>
+    <t>tau: 1</t>
+  </si>
+  <si>
+    <t>Solve time: 9.29019</t>
+  </si>
+  <si>
+    <t>Iterations: 5</t>
+  </si>
+  <si>
+    <t>--------------</t>
+  </si>
+  <si>
+    <t>Resolution: 64 x 64 x 64 = 262144 voxels (0.25M)</t>
+  </si>
+  <si>
+    <t>Prep time: 8.87081</t>
+  </si>
+  <si>
+    <t>k = 0 | |r|: 0.0732905, ratio: 0.045219 | |e|: 0.045219, ratio: 0.045219</t>
+  </si>
+  <si>
+    <t>k = 1 | |r|: 0.00308881, ratio: 0.0421448 | |e|: 0.00190575, ratio: 0.0421448</t>
+  </si>
+  <si>
+    <t>k = 2 | |r|: 0.000361904, ratio: 0.117166 | |e|: 0.000223289, ratio: 0.117166</t>
+  </si>
+  <si>
+    <t>k = 3 | |r|: 9.35416e-05, ratio: 0.258471 | |e|: 5.77137e-05, ratio: 0.258471</t>
+  </si>
+  <si>
+    <t>k = 4 | |r|: 3.16908e-05, ratio: 0.338789 | |e|: 1.95527e-05, ratio: 0.338789</t>
+  </si>
+  <si>
+    <t>k = 5 | |r|: 1.47077e-05, ratio: 0.464101 | |e|: 9.07444e-06, ratio: 0.464101</t>
+  </si>
+  <si>
+    <t>k = 6 | |r|: 9.2446e-06, ratio: 0.628554 | |e|: 5.70377e-06, ratio: 0.628554</t>
+  </si>
+  <si>
+    <t>k = 7 | |r|: 6.66471e-06, ratio: 0.720929 | |e|: 4.11202e-06, ratio: 0.720929</t>
+  </si>
+  <si>
+    <t>k = 8 | |r|: 5.08677e-06, ratio: 0.76324 | |e|: 3.13845e-06, ratio: 0.76324</t>
+  </si>
+  <si>
+    <t>k = 9 | |r|: 4.02778e-06, ratio: 0.791815 | |e|: 2.48508e-06, ratio: 0.791815</t>
+  </si>
+  <si>
+    <t>k = 10 | |r|: 3.29189e-06, ratio: 0.817295 | |e|: 2.03104e-06, ratio: 0.817295</t>
+  </si>
+  <si>
+    <t>k = 11 | |r|: 2.77041e-06, ratio: 0.841586 | |e|: 1.7093e-06, ratio: 0.841586</t>
+  </si>
+  <si>
+    <t>k = 12 | |r|: 2.39454e-06, ratio: 0.864328 | |e|: 1.47739e-06, ratio: 0.864328</t>
+  </si>
+  <si>
+    <t>k = 13 | |r|: 2.11827e-06, ratio: 0.884625 | |e|: 1.30694e-06, ratio: 0.884625</t>
+  </si>
+  <si>
+    <t>k = 14 | |r|: 1.91013e-06, ratio: 0.901738 | |e|: 1.17852e-06, ratio: 0.901738</t>
+  </si>
+  <si>
+    <t>k = 15 | |r|: 1.74852e-06, ratio: 0.915393 | |e|: 1.07881e-06, ratio: 0.915393</t>
+  </si>
+  <si>
+    <t>k = 16 | |r|: 1.61875e-06, ratio: 0.925783 | |e|: 9.9874e-07, ratio: 0.925783</t>
+  </si>
+  <si>
+    <t>Avg ratio: 0.607128</t>
+  </si>
+  <si>
+    <t>dc: 0.00371783</t>
+  </si>
+  <si>
+    <t>porosity: 0.637154</t>
+  </si>
+  <si>
+    <t>tau: 1.33889</t>
+  </si>
+  <si>
+    <t>Solve time: 11.0506</t>
+  </si>
+  <si>
+    <t>Iterations: 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauss seidel at boundaries </t>
+  </si>
+  <si>
+    <t>slighlty better for empty</t>
+  </si>
+  <si>
+    <t>slightly worse for data</t>
+  </si>
+  <si>
+    <t>full weighting 1/8 - optimal upto 48</t>
+  </si>
+  <si>
+    <t>trilinear, galerkin 1, R = I', harmonic on top, two level</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>spheres</t>
+  </si>
+  <si>
+    <t>ratio deteroriation</t>
+  </si>
+  <si>
+    <t>singularity near VN boundary</t>
+  </si>
+  <si>
+    <t>UNWEIGHTED INTERP</t>
+  </si>
+  <si>
+    <t>WEIGHTED</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>weighted,xyz</t>
   </si>
 </sst>
 </file>
@@ -498,11 +663,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4688,58 +4853,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF2285-8896-4B10-84E1-CD5F722E2922}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="J5" s="8" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="J5" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4882,13 +5047,13 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>5</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="F17" t="s">
@@ -4896,10 +5061,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>7</v>
       </c>
       <c r="D18">
@@ -4907,10 +5072,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>32</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>10</v>
       </c>
       <c r="D19">
@@ -4918,10 +5083,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>64</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>16</v>
       </c>
       <c r="D20">
@@ -4932,7 +5097,7 @@
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>8</v>
       </c>
       <c r="C21">
@@ -4943,7 +5108,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>16</v>
       </c>
       <c r="C22">
@@ -4954,10 +5119,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>32</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>9</v>
       </c>
       <c r="D23">
@@ -4965,10 +5130,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>64</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>26</v>
       </c>
       <c r="D24">
@@ -5380,6 +5545,523 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="J70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="J71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="J73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="J74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="J75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="J77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="J78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="J80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="J81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+      <c r="J82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="J88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="J89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="J90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>0.11</v>
+      </c>
+      <c r="F103">
+        <v>16</v>
+      </c>
+      <c r="G103">
+        <v>7</v>
+      </c>
+      <c r="H103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>32</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F104">
+        <v>32</v>
+      </c>
+      <c r="G104">
+        <v>7</v>
+      </c>
+      <c r="H104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>64</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F105">
+        <v>64</v>
+      </c>
+      <c r="G105">
+        <v>7</v>
+      </c>
+      <c r="H105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F106">
+        <v>16</v>
+      </c>
+      <c r="G106">
+        <v>9</v>
+      </c>
+      <c r="H106">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>0.11</v>
+      </c>
+      <c r="F107">
+        <v>32</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
+      </c>
+      <c r="H107">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>64</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F108">
+        <v>64</v>
+      </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+      <c r="H108">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F109">
+        <v>16</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>32</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F110">
+        <v>32</v>
+      </c>
+      <c r="G110">
+        <v>11</v>
+      </c>
+      <c r="H110">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>64</v>
+      </c>
+      <c r="C111">
+        <v>23</v>
+      </c>
+      <c r="D111">
+        <v>0.7</v>
+      </c>
+      <c r="F111">
+        <v>64</v>
+      </c>
+      <c r="G111">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>32</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>9.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>9.3299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>0.72</v>
+      </c>
+      <c r="D121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>64</v>
+      </c>
+      <c r="B122">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>40</v>
+      </c>
+      <c r="C124">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="D124" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\2018\battery\battery\data\results\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0942D994-F706-4346-B670-F8856BB2DAD4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB36339-2777-475C-807B-CD26D2068613}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="3" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Boundary" sheetId="3" r:id="rId3"/>
     <sheet name="New Test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
   <si>
     <t>x</t>
   </si>
@@ -562,6 +562,57 @@
   <si>
     <t>weighted,xyz</t>
   </si>
+  <si>
+    <t>v cycle</t>
+  </si>
+  <si>
+    <t>1e6,xneg, zerofirst, unweighted trilinear, I = R', harmonic</t>
+  </si>
+  <si>
+    <t>galerkin, no scaling</t>
+  </si>
+  <si>
+    <t>weighted</t>
+  </si>
+  <si>
+    <t>2 level V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if better, D restriction is at fault</t>
+  </si>
+  <si>
+    <t>singularity - pockets - for 48 x,y,z always near von neumann boundary</t>
+  </si>
+  <si>
+    <t>scaling of von neumann not problem - tested on cellDist *2 discretization</t>
+  </si>
+  <si>
+    <t>HOLLOW SPHERE TEST</t>
+  </si>
+  <si>
+    <t>1e5,xneg, zerofirst, unweighted trilinear, I = R', harmonic</t>
+  </si>
+  <si>
+    <t>unweighted</t>
+  </si>
+  <si>
+    <t>4/0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 * galerkin weighted </t>
+  </si>
+  <si>
+    <t>4 smoothings</t>
+  </si>
+  <si>
+    <t>nonharmonic, 2 level unweighted</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>jacobi unweighted</t>
+  </si>
 </sst>
 </file>
 
@@ -570,7 +621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +653,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -656,7 +714,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -668,6 +726,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1979,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281652FD-039B-4AF3-A0C5-362B4A243D76}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4853,15 +4913,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF2285-8896-4B10-84E1-CD5F722E2922}">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="8" t="s">
         <v>109</v>
@@ -4871,7 +4931,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4879,23 +4939,32 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -4907,8 +4976,17 @@
       <c r="J5" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -4921,8 +4999,20 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -4937,8 +5027,17 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>16</v>
@@ -4951,8 +5050,17 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>32</v>
@@ -4965,8 +5073,20 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>64</v>
@@ -4979,8 +5099,17 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>0.22520000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -4995,8 +5124,17 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>64</v>
+      </c>
+      <c r="N11">
+        <v>28</v>
+      </c>
+      <c r="O11">
+        <v>0.7157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>16</v>
@@ -5009,8 +5147,23 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>32</v>
@@ -5023,8 +5176,17 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>64</v>
@@ -5037,13 +5199,45 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>64</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5059,8 +5253,17 @@
       <c r="F17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>64</v>
+      </c>
+      <c r="N17">
+        <v>111</v>
+      </c>
+      <c r="O17">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -5070,8 +5273,17 @@
       <c r="D18">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>32</v>
       </c>
@@ -5081,8 +5293,20 @@
       <c r="D19">
         <v>0.28320000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>64</v>
       </c>
@@ -5092,8 +5316,17 @@
       <c r="D20">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5106,8 +5339,17 @@
       <c r="D21">
         <v>6.1400000000000003E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>64</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>16</v>
       </c>
@@ -5117,8 +5359,20 @@
       <c r="D22">
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>32</v>
       </c>
@@ -5128,8 +5382,17 @@
       <c r="D23">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>64</v>
       </c>
@@ -5139,16 +5402,33 @@
       <c r="D24">
         <v>0.69499999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>64</v>
+      </c>
+      <c r="N24">
+        <v>38</v>
+      </c>
+      <c r="O24">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
       <c r="F27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5162,7 +5442,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>16</v>
       </c>
@@ -5176,7 +5456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>32</v>
       </c>
@@ -5187,7 +5467,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>64</v>
       </c>
@@ -5198,7 +5478,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -6062,6 +6342,234 @@
       </c>
       <c r="D124" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>16</v>
+      </c>
+      <c r="B136">
+        <v>91</v>
+      </c>
+      <c r="C136">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>32</v>
+      </c>
+      <c r="B137">
+        <v>21</v>
+      </c>
+      <c r="C137">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>64</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>16</v>
+      </c>
+      <c r="B140">
+        <v>81</v>
+      </c>
+      <c r="C140">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>32</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>64</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>16</v>
+      </c>
+      <c r="B144">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>32</v>
+      </c>
+      <c r="B145">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>64</v>
+      </c>
+      <c r="B146">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>184</v>
+      </c>
+      <c r="F147" t="s">
+        <v>173</v>
+      </c>
+      <c r="I147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>16</v>
+      </c>
+      <c r="B148">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>0.43</v>
+      </c>
+      <c r="E148">
+        <v>16</v>
+      </c>
+      <c r="F148">
+        <v>96</v>
+      </c>
+      <c r="G148">
+        <v>0.88</v>
+      </c>
+      <c r="H148">
+        <v>16</v>
+      </c>
+      <c r="I148">
+        <v>16</v>
+      </c>
+      <c r="J148">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>32</v>
+      </c>
+      <c r="B149">
+        <v>75</v>
+      </c>
+      <c r="C149">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E149">
+        <v>32</v>
+      </c>
+      <c r="H149">
+        <v>32</v>
+      </c>
+      <c r="I149">
+        <v>91</v>
+      </c>
+      <c r="J149">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>64</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E150">
+        <v>64</v>
+      </c>
+      <c r="F150" t="s">
+        <v>185</v>
+      </c>
+      <c r="H150">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6069,5 +6577,6 @@
     <mergeCell ref="B1:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\2018\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB36339-2777-475C-807B-CD26D2068613}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33105C-99CC-4CBF-959E-D761D7E17BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="3" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Boundary" sheetId="3" r:id="rId3"/>
     <sheet name="New Test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="203">
   <si>
     <t>x</t>
   </si>
@@ -612,6 +612,54 @@
   </si>
   <si>
     <t>jacobi unweighted</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>restr 1/8, I bilinear</t>
+  </si>
+  <si>
+    <t>r=1,I=2</t>
+  </si>
+  <si>
+    <t>r=2,I=1</t>
+  </si>
+  <si>
+    <t>harmonic</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>galerking</t>
+  </si>
+  <si>
+    <t>I, R separate, unweighted, dirichlet</t>
+  </si>
+  <si>
+    <t>no half volume</t>
+  </si>
+  <si>
+    <t>rbline gs</t>
+  </si>
+  <si>
+    <t>2level</t>
+  </si>
+  <si>
+    <t>trilinear</t>
+  </si>
+  <si>
+    <t>half vol I</t>
+  </si>
+  <si>
+    <t>halfvol I,.R</t>
+  </si>
+  <si>
+    <t>same as I</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -723,11 +771,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4913,39 +4961,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF2285-8896-4B10-84E1-CD5F722E2922}">
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L175" sqref="L175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="L3" t="s">
         <v>170</v>
       </c>
@@ -4955,11 +5003,11 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="L4" t="s">
         <v>172</v>
       </c>
@@ -4968,11 +5016,11 @@
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="J5" s="7" t="s">
         <v>108</v>
       </c>
@@ -6363,7 +6411,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6371,7 +6419,7 @@
       <c r="A134" t="s">
         <v>173</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="8">
         <v>100000</v>
       </c>
       <c r="D134" s="3">
@@ -6570,6 +6618,381 @@
       </c>
       <c r="H150">
         <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>187</v>
+      </c>
+      <c r="B155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>188</v>
+      </c>
+      <c r="C156" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>32</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E158">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>64</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>0.152</v>
+      </c>
+      <c r="E159">
+        <v>25</v>
+      </c>
+      <c r="F159">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>9</v>
+      </c>
+      <c r="F162">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>32</v>
+      </c>
+      <c r="E163">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>64</v>
+      </c>
+      <c r="E164">
+        <v>45</v>
+      </c>
+      <c r="F164">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>194</v>
+      </c>
+      <c r="E171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" t="s">
+        <v>199</v>
+      </c>
+      <c r="H174" t="s">
+        <v>200</v>
+      </c>
+      <c r="I174" t="s">
+        <v>201</v>
+      </c>
+      <c r="K174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>16</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H175">
+        <v>5</v>
+      </c>
+      <c r="I175">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K175">
+        <v>5</v>
+      </c>
+      <c r="L175">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>32</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>0.6</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K176">
+        <v>5</v>
+      </c>
+      <c r="L176">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>64</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+      <c r="F177">
+        <v>7.1599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>16</v>
+      </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
+      <c r="C179">
+        <v>0.3</v>
+      </c>
+      <c r="E179">
+        <v>10</v>
+      </c>
+      <c r="F179">
+        <v>0.3</v>
+      </c>
+      <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
+        <v>0.3</v>
+      </c>
+      <c r="K179" t="s">
+        <v>202</v>
+      </c>
+      <c r="L179" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>32</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>0.2</v>
+      </c>
+      <c r="E180">
+        <v>8</v>
+      </c>
+      <c r="F180">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>64</v>
+      </c>
+      <c r="B181">
+        <v>42</v>
+      </c>
+      <c r="C181">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="E181">
+        <v>42</v>
+      </c>
+      <c r="F181">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>16</v>
+      </c>
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>0.43</v>
+      </c>
+      <c r="E183">
+        <v>10</v>
+      </c>
+      <c r="F183">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H183">
+        <v>10</v>
+      </c>
+      <c r="I183">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K183">
+        <v>26</v>
+      </c>
+      <c r="L183">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>32</v>
+      </c>
+      <c r="B184">
+        <v>75</v>
+      </c>
+      <c r="C184">
+        <v>0.91</v>
+      </c>
+      <c r="E184">
+        <v>78</v>
+      </c>
+      <c r="F184">
+        <v>0.91</v>
+      </c>
+      <c r="H184">
+        <v>78</v>
+      </c>
+      <c r="I184">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>64</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>7.4499999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\2018\battery\battery\data\results\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33105C-99CC-4CBF-959E-D761D7E17BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB83249A-1A8D-4024-BF5C-DEC13BA50518}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="3" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Boundary" sheetId="3" r:id="rId3"/>
     <sheet name="New Test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="206">
   <si>
     <t>x</t>
   </si>
@@ -660,6 +660,15 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>empty, I = R'*8</t>
+  </si>
+  <si>
+    <t>I,R, trilinear weighted</t>
+  </si>
+  <si>
+    <t>Divergent</t>
   </si>
 </sst>
 </file>
@@ -4961,10 +4970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF2285-8896-4B10-84E1-CD5F722E2922}">
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L175" sqref="L175"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6995,6 +7004,56 @@
         <v>7.4499999999999997E-2</v>
       </c>
     </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>203</v>
+      </c>
+      <c r="E189" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>16</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>16</v>
+      </c>
+      <c r="B192">
+        <v>64</v>
+      </c>
+      <c r="C192">
+        <v>0.82</v>
+      </c>
+      <c r="E192" t="s">
+        <v>202</v>
+      </c>
+      <c r="F192" t="s">
+        <v>202</v>
+      </c>
+      <c r="G192" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F5"/>

--- a/data/results/performance/performance_multigrid.xlsx
+++ b/data/results/performance/performance_multigrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\battery\battery\data\results\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB83249A-1A8D-4024-BF5C-DEC13BA50518}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F916A-755C-4908-9BD3-C336EB9325A2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11580" activeTab="3" xr2:uid="{CCF8D299-8A86-4FA5-9802-73296FAB53F1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Boundary" sheetId="3" r:id="rId3"/>
     <sheet name="New Test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="216">
   <si>
     <t>x</t>
   </si>
@@ -669,6 +669,36 @@
   </si>
   <si>
     <t>Divergent</t>
+  </si>
+  <si>
+    <t>W cycle</t>
+  </si>
+  <si>
+    <t>1e6,xneg</t>
+  </si>
+  <si>
+    <t>zerofirst, , NONharmonic, galerkin, no scaling</t>
+  </si>
+  <si>
+    <t>unweighted trilinear restr (4^3)</t>
+  </si>
+  <si>
+    <t>weighted trilinear interp</t>
+  </si>
+  <si>
+    <t>logn levels</t>
+  </si>
+  <si>
+    <t>v0=v1=1</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>… harmonic is worse in this case</t>
+  </si>
+  <si>
+    <t>2 CYCLE</t>
   </si>
 </sst>
 </file>
@@ -4970,15 +5000,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF2285-8896-4B10-84E1-CD5F722E2922}">
-  <dimension ref="A1:O192"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="10" t="s">
         <v>109</v>
@@ -4988,7 +5018,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4996,7 +5026,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -5010,7 +5040,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5020,8 +5050,17 @@
       <c r="L4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>206</v>
+      </c>
+      <c r="V4" t="s">
+        <v>207</v>
+      </c>
+      <c r="W4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -5042,8 +5081,14 @@
       <c r="O5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -5068,8 +5113,17 @@
       <c r="O6">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -5093,8 +5147,20 @@
       <c r="O7">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7">
+        <v>16</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>16</v>
@@ -5116,8 +5182,17 @@
       <c r="O8">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>32</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>32</v>
@@ -5142,8 +5217,17 @@
       <c r="O9">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>64</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>64</v>
@@ -5165,8 +5249,11 @@
       <c r="O10">
         <v>0.22520000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Z10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -5190,8 +5277,20 @@
       <c r="O11">
         <v>0.7157</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11">
+        <v>16</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>16</v>
@@ -5219,8 +5318,17 @@
       <c r="O12">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>32</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>32</v>
@@ -5242,8 +5350,23 @@
       <c r="O13">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>48</v>
+      </c>
+      <c r="W13">
+        <v>16</v>
+      </c>
+      <c r="X13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>64</v>
@@ -5265,8 +5388,27 @@
       <c r="O14">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>64</v>
+      </c>
+      <c r="W14">
+        <v>17</v>
+      </c>
+      <c r="X14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>29</v>
       </c>
@@ -5280,7 +5422,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
